--- a/MeaningCloud_Uber_Ride_Reviews_sample.xlsx
+++ b/MeaningCloud_Uber_Ride_Reviews_sample.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA4D443-AF64-4A2F-B416-B9FA5623F0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Global Sentiment Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Polarity</t>
   </si>
@@ -35,13 +42,49 @@
   </si>
   <si>
     <t>I South Beach FL I staying major hotel ordered Uber The driver find ridiculous I waiting front hotel located main drag SOBE He hung charged I disputed charge I credit account Uber available I live The last time I ordered car South Beach driver hardly spoke English find TJ MAXX My advice use Uber Florida</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Irony</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>DISAGREEMENT</t>
+  </si>
+  <si>
+    <t>IRONIC</t>
+  </si>
+  <si>
+    <t>NONIRONIC</t>
+  </si>
+  <si>
+    <t>N+</t>
+  </si>
+  <si>
+    <t>AGREEMENT</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>Polarity_result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +100,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF52B9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4EDC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED4240"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,10 +168,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,59 +528,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030E430-75FC-4DF6-89BB-37C3F09CEBBC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>91</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>94</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
